--- a/parsed_resumes.xlsx
+++ b/parsed_resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,47 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Achievements</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Languages</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Achievements &amp; Awards</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Certifications</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Interests</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Objective</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Certifications and Achievements</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Relevant Coursework</t>
         </is>
       </c>
     </row>
@@ -503,7 +538,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Salesforce technologies (APEX, Trigger, SOQL, SOSL, Integration, Flows, Async Apex, LWC)', 'Java', 'JavaScript', 'APEX', 'OOPs', 'HTML', 'CSS', 'tailwind CSS', 'React.js', 'Socket.io', 'Positive attitude', 'Team player']</t>
+          <t>['Salesforce technologies (APEX, Trigger, SOQL, SOSL, Integration, Flows, Async Apex, LWC)', 'Java', 'JavaScript', 'APEX', 'OOPs', 'HTML', 'CSS', 'Tailwind CSS', 'React.js', 'Socket.io', 'Positive attitude', 'Team player']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -513,7 +548,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[{'Company': 'Cyntexa', 'Title': 'Junior Salesforce developer', 'Years': 'January 2024- Current', 'Description': 'Develop and customize Salesforce applications using Apex, LWC, and other Salesforce technologies to meet client-specific needs, enhancing business processes and ensuring seamless integration with existing systems.'}, {'Company': 'Itonic Labs', 'Title': 'React Developer Intern', 'Years': 'July 2023- January 2024', 'Description': 'Developed and optimized React.js components for the company’s webpage, enhancing performance by preventing unnecessary rendering. Actively collaborated with a development team, providing valuable code reviews and constructive feedback to enhance overall project quality. Acquired and applied skills in Socket.io for real-time features.'}]</t>
+          <t>[{'Company': 'Cyntexa', 'Title': 'Junior Salesforce developer', 'Years': 'January 2024- Current', 'Description': 'Develop and customize Salesforce applications using Apex, LWC, and other Salesforce technologies to meet client-specific needs, enhancing business processes and ensuring seamless integration with existing systems.'}, {'Company': 'Itonic Labs', 'Title': 'React Developer Intern', 'Years': 'July 2023- January 2024', 'Description': 'Developed and optimized React.js components for the company’s webpage,enhancing performance by preventing unnecessary rendering. Actively collaborated with in a development team, providing valuable code reviews and constructive feedback to enhance overall project quality. Acquired and applied skills in Socket.io for real-time features.'}]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,11 +566,18 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>675c2b7d89125090be135275</t>
+          <t>675fa7030d8bc1f4ec5a5856</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,7 +592,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['JavaScript', 'TypeScript', 'Nodejs', 'React JS', 'Angular', 'SQL', 'MongoDB', 'Analysis of Algorithms', 'Low Level Design', 'Kubernetes', 'System Design', 'Redis', 'DBMS', 'DSA', 'Git', 'Docker', 'WebServices(API)', 'Tailwind CSS', 'OOPS', 'Material UI(Angular)', 'C++', 'Python', 'Field Validation', 'CRUD Operations', 'SMTP Configuration', 'Automated Testing (Cucumber, Zephyr)', 'WebSocket', 'Backend Development', 'Frontend Development', 'Customer Success', 'Project Management']</t>
+          <t>['JavaScript', 'Typescript', 'Nodejs', 'React JS', 'Angular', 'SQL', 'MongoDB', 'Analysis of Algorithms', 'Low Level Design', 'Kubernetes', 'System Design', 'Redis', 'DBMS', 'DSA', 'Git', 'Docker', 'WebServices(API)', 'Tailwind CSS', 'OOPS', 'Material UI(Angular)', 'C++', 'Python', 'Backend Development', 'Frontend Development', 'Automated Testing (Cucumber, Zephyr)', 'Field Validation', 'SMTP Configuration', 'ITSM Enhancement', 'Backward Compatibility', 'CSV Reporting', 'WebSocket', 'Cron Job']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -560,7 +602,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[{'Company': 'Robomq.io', 'Title': 'Software Development Engineer', 'Dates': 'January 2024 – Present', 'Location': 'Jaipur, Rajasthan', 'Responsibilities': ['Developed and integrated robust field validation mechanisms within the Hire2Retire product, reducing data entry loss errors by 40%', 'Implemented versioning for over 50 mail templates, improving CRUD functionality and boosting user experience across systems by 20%', 'Enhanced email delivery by implementing streamlined SMTP configuration for 5 different deployment environments, ensuring 99.9% reliable communication', 'Resolved over 100 bugs and optimized ITSM functionalities, increasing system stability by 25% and user satisfaction by 15%', 'Developed and authorized over 50 scripts to maintain backward compatibility, ensuring smooth functionality across all user environment, supporting 95% legacy systems', 'Created and implemented automated testing scripts using Cucumber in Zephyr, streamline testing process reducing 60% efforts and improving quality assurance for product release', 'Streamlined processes by resolving 500+ identity conflicts and enhancing reconciliation reports by 30%, improving overall efficiency', 'Developed a real-time CSV reporting system, ensuring 100% contractual compliance and automating report generation, which reduced manual effort by 40%, significantly enhancing customer insights', 'Co-Led a customer success team for 1 year, improving client onboarding and issue resolution processes for the Hire2Retire and Connect platforms, leading to a 60% increase in customer satisfaction']}]</t>
+          <t>[{'Company': 'Robomq.io', 'Title': 'Software Development Engineer', 'Dates': 'January 2024 – Present', 'Location': 'Jaipur, Rajasthan', 'Responsibilities': ['Developed and integrated robust field validation mechanisms within the Hire2Retire product, reducing data entry loss errors by 40%', 'Implemented versioning for over 50 mail templates, improving CRUD functionality and boosting user experience across systems by 20%', 'Enhanced email delivery by implementing streamlined SMTP configuration for 5 different deployment environments, ensuring 99.9% reliable communication', 'Resolved over 100 bugs and optimized ITSM functionalities, increasing system stability by 25% and user satisfaction by 15%', 'Developed and authorized over 50 scripts to maintain backward compatibility, ensuring smooth functionality across all user environment, supporting 95% legacy systems', 'Created and implemented automated testing scripts using Cucumber in Zephyr, streamline testing process reducing 60% efforts and improving quality assurance for product release', 'Streamlined processes by resolving 500+ identity conflicts and enhancing reconciliation reports by 30%, improving overall efficiency', 'Developed a real-time CSV reporting system, ensuring 100% contractual compliance and automating report generation, which reduced manual effort by 40%, significantly enhancing customer insights']}]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -574,11 +616,26 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>675c2b8789125090be135277</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>675fa70f0d8bc1f4ec5a5858</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['Co-Led a customer success team for 1 year, improving client onboarding and issue resolution processes for the Hire2Retire and Connect platforms, leading to a 60% increase in customer satisfaction.', 'Managed and delivered entire sprints taking ownership, shouldering full responsibility by coordinating across teams.', 'Repeatedly recognized as the top developer for outstanding performance and commitment.', 'Enhanced Wordle with flexible word lengths, real-time updates via WebSocket, and a multiplayer room feature, with live voting from 100+ players. A cron job generates unique words daily for continuous gameplay.', 'Represented the college at the national level by securing the position of Grand Finalist at the world’s largest hackathon SMART INDIA HACKATHON - 2022 by designing a unique product for attendance system.', 'Created To-Do application allowing users to perform CRUD operation, with session-based authentication using Redis. Utilized Angular to provide real-time updates for task changes without need for manual refresh.']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['English (Fluent)', 'Hindi (Fluent)']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -593,7 +650,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Sales Funnel', 'Negotiations Skill in Sales', 'Sales Management', 'Team leadership', 'Performance management', 'Project Management', 'Business Development', 'Management', 'Team Building and Leading', 'Presentation', 'Sales and Marketing', 'CRM', 'Communication', 'Laboratory Management', 'Microsoft Excel', 'Power Point', 'Editing', 'Content Writing', 'Writing', 'Voice Art/ Dubbing', 'Cooking', 'Poetry']</t>
+          <t>['Sales Funnel', 'Negotiations Skill in Sales', 'Sales Management', 'Team leadership', 'Performance management', 'Project Management', 'Business Development', 'Management', 'Team Building and Leading', 'Presentation', 'Sales and Marketing', 'CRM', 'Communication', 'Laboratory Management', 'Microsoft Excel', 'Power Point', 'Editing', 'Content Writing', 'Writing', 'Voice Art/ Dubbing', 'Cooking', 'Painting', 'Crafting and Design']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -603,10 +660,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[{'Company': 'Imperial Polylayers (Freelance)', 'Title': 'Business Representative', 'Dates': 'March 2022 - March 2022', 'Description': 'Promoted mulching paper solutions, driving agricultural sales growth'}, {'Company': 'Growloc LLP', 'Title': 'Sales Representatives', 'Dates': 'July 2022 - May 2023', 'Description': '-Promoting sustainable agriculture and hydroponic produce\n-Driving customer satisfaction and business growth.'}, {'Company': 'Growloc Pvt. Ltd', 'Title': 'Business Development Associate', 'Dates': 'May 2023 - Nov 2023', 'Description': '-Drove revenue growth and expanded client base through strategic partnerships and initiatives.\n- Promoted sustainable agriculture practices, streamlining processes, and enhancing customer satisfaction.'}, {'Company': 'PrepCA Edusurv Pvt. Ltd', 'Title': 'Senior Business Development Associate', 'Dates': 'Nov 2023 - April 2024', 'Description': '-Drove business growth through partnerships and strategic initiatives.\n- Expertly guided CA aspirants in admissions, ensuring seamless transitions.'}, {'Company': 'CoachX. Live', 'Title': 'Business Development Executive', 'Dates': 'April 2024 - September 2024', 'Description': '-Identified and pursued new business opportunities, building relationships and partnerships.\n- Led and mentored the team to achieve exceptional results.'}]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>[{'Company': 'Imperial Polylayers (Freelance)', 'Position': 'Business Representative', 'Dates': 'March 2022 - March 2022', 'Description': 'Promoted mulching paper solutions, driving agricultural sales growth'}, {'Company': 'Growloc LLP', 'Position': 'Sales Representatives', 'Dates': 'July 2022 - May 2023', 'Description': '-Promoting sustainable agriculture and hydroponic produce\n-Driving customer satisfaction and business growth.'}, {'Company': 'Growloc Pvt. Ltd', 'Position': 'Business Development Associate', 'Dates': 'May 2023 - Nov 2023', 'Description': '-Drove revenue growth and expanded client base through strategic partnerships and initiatives.\n- Promoted sustainable agriculture practices, streamlining processes, and enhancing customer satisfaction.'}, {'Company': 'PrepCA Edusurv Pvt. Ltd', 'Position': 'Senior Business Development Associate', 'Dates': 'Nov 2023 - April 2024', 'Description': '-Drove business growth through partnerships and strategic initiatives.\n- Expertly guided CA aspirants in admissions, ensuring seamless transitions.'}, {'Company': 'CoachX. Live', 'Position': 'Business Development Executive', 'Dates': 'April 2024 - September 2024', 'Description': '-Identified and pursued new business opportunities, building relationships and partnerships.\n- Led and mentored the team to achieve exceptional results.'}]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Astrobiology (HELIX-ACA 2018)', 'Cancer and Technology (HELIX-ACA 2019)', 'Eco electric Impliment (Eco Electric Implement Project: Revolutionizing eco-friendly transportation with renewable energy, awarded 2nd place in Navenya Competition of Science)']</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Resume - Vaishnavi Ugale 30.pdf</t>
@@ -617,111 +678,214 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>675c2b9289125090be135279</t>
+          <t>675fa71c0d8bc1f4ec5a585a</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Marathi', 'Hindi', 'English']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['Participated in HELIX Exhibition in Ahmednagar College, Ahmednagar 2018', 'Participated in HELIX Exhibition in Ahmednagar College, Ahmednagar 2019', 'Participated in Navenya: Innovative Minds Compitition conducted by Department of Biotechnology, in Modern College of Arts, Science and commerce', 'Participated and worked in Kisan Exhibition, Conducted by Kisan Forum Private limited company', 'Participated in Super Writer awards by Pratilipi', 'Participated in Golden Batch Author workshop by Pratilipi', 'Rising star of the month award june 2024', 'Rising star of the month award july 2024']</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>['Sales Funnel - Great Learning', 'Negotiations Skill in Sales', 'Sales Management Course', 'PMP Basic Certiﬁcate from Simplilearn by Skillup!', 'PMP Certiﬁcation Training']</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>['You are 23 Stories Away', 'The joy of Peace', 'Kaleidoscope']</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['Writing', 'Cooking', 'Painting', 'Crafting and Design', 'Reading', 'Poetry']</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>To secure a role that aligns with my passion for writing, business development, and education, where I can apply my skills to make a meaningful impact.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SUJIT KUMAR SINGH</t>
+          <t>Nakshatra Garg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'email': 'sujitksingh4710@gmail.com', 'phone': '+91 7978502928', 'linkedin': 'https://www.linkedin.com/in/sujit-singh-76666b236', 'github': 'https://github.com/sujitsiingh'}</t>
+          <t>{'phone': '+91 6350239614', 'email': 'nakshatragarg678@gmail.com', 'linkedin': 'LinkedIn', 'github': 'Github', 'portfolio': 'Portfolio'}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'Programming Languages': ['C++', 'Python'], 'Web Development': ['HTML', 'CSS', 'JavaScript'], 'Frameworks/Libraries': ['React.js', 'Node.js', 'Express.js', 'React Native', 'Redux-Toolkit', 'Tailwind CSS'], 'Database': ['MongoDB', 'SQL'], 'Developer Tools': ['Git', 'VS Code', 'Thunder Client', 'Postman'], 'Soft Skills': ['Problem-solving', 'Adaptability', 'Communication']}</t>
+          <t>{'Languages': ['C/C++', 'HTML', 'CSS/SCSS', 'JavaScript', 'Golang'], 'Libraries &amp; Frameworks': ['ReactJS', 'NodeJS', 'Express', 'MongoDB', 'AngularJS', 'Redux'], 'Developer Tools': ['Docker', 'Bitbucket', 'Git', 'MySQL'], 'Other Skills': ['Backend and API development', 'Advanced Learning Algorithms', 'KYC validation', 'Aadhaar masking', 'Role-based access control']}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[{'Institution': 'Silicon University, Bhubaneswar', 'Degree': 'Bachelor’s Degree in Technology (Computer Science and Engineering)', 'CGPA': '8.12', 'Dates': 'Dec 2021 - Jun 2025'}]</t>
+          <t>[{'Institution': 'Swami Keshvanad Institute of Technology, Management and Gramothan', 'Degree': 'Bachelor of Technology in Computer Science with Artificial Intelligence', 'CGPA': '9.84', 'Dates': 'July 2020 – Present'}, {'Institution': 'Kendriya Vidylaya Beawar', 'Degree': 'Seinor Secondary', 'Percentage': '89.80', 'Dates': 'April 2019 – March 2020'}, {'Institution': 'Kendriya Vidylaya No.2, Ajmer', 'Degree': 'Secondary', 'Percentage': '80.60', 'Dates': 'April 2017 – March 2018'}]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Title': 'Software Developer', 'Company': 'Kugelblitz Private Limited', 'Dates': 'February 2024 – Present', 'Description': 'Implemented critical services (KYC validation, Aadhaar masking, etc.) into loan management software using Golang and Nodejs as backend technology. Developed interactive UI using React.js, offering a user-friendly experience for administrators, clients, and Kugelblitz users which provides a role-based access control. Enabled customers to gain insights into their accounts such as balance details and charges per call etc, enhances transparency.'}, {'Title': 'Software Development Intern', 'Company': 'Swami Keshvanand Institute of Technology', 'Dates': 'July 2023 – September 2023', 'Description': 'Leading a team of three, we successfully developed a full-stack application. Using technologies like React.js and Redux, we integrated frontend and backend functionalities. Developed an automated vehicle registration form for campus use, streamlining university operations and saving valuable time and resources.'}]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'Name': 'POSTX- A Social Media APP', 'Technologies': ['MongoDB', 'Express.js', 'React.js', 'Node.js'], 'Description': 'Crafted a social media application to foster engagement, enabling profile creation, user registration, authentication, posting, and follow/unfollow functionality. Leveraged MongoDB for its flexible schema; utilized Express.js and Node.js for a robust, scalable backend ensuring efficient data handling and server-side logic. React.js for user-friendly frontend. Designed and secured APIs for backend, resulting in a 30% reduction in response time.'}, {'Name': 'ShopEase- E-Commerce App', 'Technologies': ['MongoDB', 'Express.js', 'React Native', 'Node.js'], 'Description': 'Developed a mobile e-commerce application using React Native for cross-platform compatibility. Created a robust backend with Express.js  and used MongoDB for database management and efficient state management using Redux-Toolkit. Integrated key features including user authentication, product catalog, shopping cart. Augmented the performance and optimized, resulting in achieving a speed index of 0.9 seconds.'}, {'Name': 'CRUISEO- A Car Rental Website', 'Technologies': ['MongoDB', 'Express.js', 'React.js', 'Node.js', 'Tailwind CSS'], 'Description': 'Engineered a car rental website enabling efficient vehicle booking for customers and robust management functionalities for administrators. Incorporated tailored recommendations using user preferences and review data to enhance personalization. Formed a responsive frontend with Tailwind CSS for fast rendering and smooth animations. Optimized backend processes for seamless interactions and faster load times, achieving a 20% reduction in server response time.'}]</t>
+          <t>[{'Name': 'Graviton LOS', 'Description': 'Developing and maintaining the frontend of Graviton, a loan management software using AngularJS, for the Loan Organizing System (LOS) module, enabling over 15 clients to efficiently distribute loans exceeding Rs100 crore. Implemented critical services (KYC validation, Aadhaar masking, messaing, cibil etc.) using Golang and Nodejs as backend technology. Integrating these services streamlines the loan application and approval process, reducing manual effort and enhancing operational efficiency. Collaborated with backend teams to ensure seamless data flow in the LOS module, providing NBFCs with a reliable tool in Graviton to manage and track loans, facilitating the distribution of loans.'}, {'Name': 'Dumping Tool', 'Description': 'Architected and developed an automated dumping tool to safeguard critical data, scheduled to run daily at 6 PM to extract database dumps from SQL and PostgreSQL servers ensuring data safety and continuity in case of disasters or system failures. By automating the process of taking database dumps and storing them securely, it provides a crucial backup mechanism. Deployed a user-friendly server interface for on-demand individual database dumps, enhancing flexibility and accessibility for stakeholders with a feature of automatic deletion of older dumps after three days, optimizing storage utilization and maintenance.'}]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sujit_Singh_Resume.pdf</t>
+          <t>resume_nakshatra_august.pdf</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>65.84</v>
+        <v>103.1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>675c2b9c89125090be13527b</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Full Stack Web Development: iHUB DivyaSampark, IIT Roorkee', 'Joy of Computing using Python: NPTEL', 'Ethical Hacking: NPTEL', 'Python for Beginner and Mobile App Development using React Native: Syllogistek System Pvt. Ltd.']</t>
-        </is>
-      </c>
+          <t>675fa7280d8bc1f4ec5a585c</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>['Backend and API development by FreeCodeCamp.', 'Advanced Learning Algorithms by Deeplearning.AI and Stanford.']</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nakshatra Garg</t>
+          <t>SUJIT KUMAR SINGH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'phone': '+91 6350239614', 'email': 'nakshatragarg678@gmail.com', 'linkedin': 'LinkedIn', 'github': 'Github', 'portfolio': 'Portfolio'}</t>
+          <t>{'email': 'sujitksingh4710@gmail.com', 'phone': '+91 7978502928', 'linkedin': 'https://www.linkedin.com/in/sujit-singh-76666b236', 'github': 'https://github.com/sujitsiingh'}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'Languages': ['C/C++', 'HTML', 'CSS/SCSS', 'JavaScript', 'Golang'], 'Libraries &amp; Frameworks': ['ReactJS', 'NodeJS', 'Express', 'MongoDB', 'AngularJS', 'Redux'], 'Developer Tools': ['Docker', 'Bitbucket', 'Git', 'MySQL'], 'Other Skills': ['Backend and API development', 'Advanced Learning Algorithms', 'KYC validation', 'Aadhaar masking', 'Role-based access control']}</t>
+          <t>{'Programming Languages': ['C++', 'Python'], 'Web Development': ['HTML', 'CSS', 'JavaScript'], 'Frameworks/Libraries': ['React.js', 'Node.js', 'Express.js', 'React Native', 'Redux-Toolkit', 'Tailwind CSS'], 'Database': ['MongoDB', 'SQL'], 'Developer Tools': ['Git', 'VS Code', 'Thunder Client', 'Postman'], 'Soft Skills': ['Problem-solving', 'Adaptability', 'Communication']}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[{'Institution': 'Swami Keshvanad Institute of Technology, Management and Gramothan', 'Degree': 'Bachelor of Technology in Computer Science with Artificial Intelligence', 'CGPA': '9.84', 'Dates': 'July 2020 – Present'}, {'Institution': 'Kendriya Vidylaya Beawar', 'Degree': 'Seinor Secondary', 'Percentage': '89.80', 'Dates': 'April 2019 – March 2020'}, {'Institution': 'Kendriya Vidylaya No.2, Ajmer', 'Degree': 'Secondary', 'Percentage': '80.60', 'Dates': 'April 2017 – March 2018'}]</t>
+          <t>[{'Institution': 'Silicon University, Bhubaneswar', 'Degree': 'Bachelor’s Degree in Technology (Computer Science and Engineering)', 'CGPA': '8.12', 'Dates': 'Dec 2021 - Jun 2025'}]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[{'Title': 'Software Developer', 'Company': 'Kugelblitz Private Limited', 'Dates': 'February 2024 – Present', 'Description': 'Implemented critical services (KYC validation, Aadhaar masking, etc.) into loan management software using Golang and Nodejs as backend technology. Developed interactive UI using React.js, offering a user-friendly experience for administrators, clients, and Kugelblitz users which provides a role-based access control. Enabled customers to gain insights into their accounts such as balance details and charges per call etc, enhances transparency.'}, {'Title': 'Software Development Intern', 'Company': 'Swami Keshvanand Institute of Technology', 'Dates': 'July 2023 – September 2023', 'Description': 'Leading a team of three, we successfully developed a full-stack application. Using technologies like React.js and Redux, we integrated frontend and backend functionalities. Developed an automated vehicle registration form for campus use, streamlining university operations and saving valuable time and resources.'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'Name': 'Graviton LOS', 'Description': 'Developing and maintaining the frontend of Graviton, a loan management software using AngularJS, for the Loan Organizing System (LOS) module, enabling over 15 clients to efficiently distribute loans exceeding Rs100 crore. Implemented critical services (KYC validation, Aadhaar masking, messaing, cibil etc.) using Golang and Nodejs as backend technology.Integrating these services streamlines the loan application and approval process, reducing manual effort and enhancing operational efficiency. Collaborated with backend teams to ensure seamless data flow in the LOS module, providing NBFCs with a reliable tool in Graviton to manage and track loans, facilitating the distribution of loans.'}, {'Name': 'Dumping Tool', 'Description': 'Architected and developed an automated dumping tool to safeguard critical data, scheduled to run daily at 6 PM to extract database dumps from SQL and PostgreSQL servers ensuring data safety and continuity in case of disasters or system failures. By automating the process of taking database dumps and storing them securely, it provides a crucial backup mechanism. Deployed a user-friendly server interface for on-demand individual database dumps, enhancing flexibility and accessibility for stakeholders with a feature of automatic deletion of older dumps after three days, optimizing storage utilization and maintenance.'}]</t>
+          <t>[{'Name': 'POSTX- A Social Media APP', 'Technologies': ['MongoDB', 'Express.js', 'React.js', 'Node.js'], 'Description': 'Crafted a social media application to foster engagement, enabling profile creation, user registration, authentication, posting, and follow/unfollow functionality. Leveraged MongoDB for its flexible schema; utilized Express.js and Node.js for a robust, scalable backend ensuring efficient data handling and server-side logic. React.js for user-friendly frontend. Designed and secured APIs for backend, resulting in a 30% reduction in response time.'}, {'Name': 'ShopEase- E-Commerce App', 'Technologies': ['MongoDB', 'Express.js', 'React Native', 'Node.js'], 'Description': 'Developed a mobile e-commerce application using React Native for cross-platform compatibility. Created a robust backend with Express.js  and used MongoDB for database management and efficient state management using Redux-Toolkit. Integrated key features including user authentication, product catalog, shopping cart. Augmented the performance and optimized, resulting in achieving a speed index of 0.9 seconds.'}, {'Name': 'CRUISEO- A Car Rental Website', 'Technologies': ['MongoDB', 'Express.js', 'React.js', 'Node.js', 'Tailwind CSS'], 'Description': 'Engineered a car rental website enabling efficient vehicle booking for customers and robust management functionalities for administrators. Incorporated tailored recommendations using user preferences and review data to enhance personalization. Formed a responsive frontend with Tailwind CSS for fast rendering and smooth animations. Optimized backend processes for seamless interactions and faster load times, achieving a 20% reduction in server response time.'}]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>resume_nakshatra_august.pdf</t>
+          <t>Sujit_Singh_Resume.pdf</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>103.1</v>
+        <v>65.84</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>675c2bea8a5c224db447285f</t>
+          <t>675fa7310d8bc1f4ec5a585e</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Backend and API development by FreeCodeCamp.', 'Advanced Learning Algorithms by Deeplearning.AI and Stanford.']</t>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['Full Stack Web Development: iHUB DivyaSampark, IIT Roorkee', 'Joy of Computing using Python: NPTEL', 'Ethical Hacking: NPTEL', 'Python for Beginner and Mobile App Development using React Native: Syllogistek System Pvt. Ltd.']</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Shilpi Shukla</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>{'email': 'shilpishukla.jp@gmail.com', 'phone': '+91-6376039200'}</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'Languages': ['C', 'C++', 'Python', 'Javascript'], 'Libraries': ['Transformers', 'Keras', 'Pandas', 'scikit-learn', 'Matplotlib', 'OpenCV', 'React.js'], 'Development Tools': ['AWS', 'Git/GitHub', 'VS Code'], 'Frameworks': ['Flask', 'Express', 'PyTorch', 'LangChain', 'LlamaIndex'], 'Databases': ['Relational Database(MySQL)', 'MongoDB'], 'Soft Skills': ['Self-learning', 'Presentation', 'Adaptability', 'Communication', 'Observer', 'Emotional Intelligence', 'Leadership', 'Teamwork']}</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[{'Degree': 'B.Tech in Computer Science with Artificial Intelligence', 'Institution': 'Swami Keshvanad Institute of Technology, Jaipur', 'Years': '2020-2024', 'CGPA': '8.80'}, {'Degree': 'Higher Secondary', 'Institution': 'Jaipuria Vidyalaya, Jaipur', 'Years': '2019-2020', 'Percentage': '81.80'}]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[{'Title': 'ASD(AI/ML Developer)', 'Company': 'INZINT PVT LTD', 'Years': 'Aug 2024 - Present', 'Responsibilities': ['Developed ATS checker and a basic MERN stack website, enhancing system functionality.', 'Automated workflows related to ATS, reducing manual tasks and improving efficiency.', 'Executed end-to-end project development from ideation to deployment.']}, {'Title': 'AI/ML Trainee Developer', 'Company': 'INZINT PVT LTD', 'Years': 'Feb 2024 - Aug 2024', 'Responsibilities': ['Built hands-on expertise in machine learning, deep learning, and Generative AI (Transformers) through designing and executing multiple projects from scratch.', 'Proficient in AWS services, leveraging advanced frameworks to develop and deploy software applications.', 'Led the development of an AI-driven legal advice and response automation system, enhancing efficiency and accuracy significantly.']}]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[{'Name': 'LEGAL AI BOT', 'Description': 'A context-driven Law Consultancy chat support powered by LLMs leveraging RAG. Developed an AI Legal Consultancy Bot that assists users with legal queries, which also allows users to upload their own PDFs data for AI-driven consultation. Enhanced user experience by integrating a feature for situational legal questions, providing accurate legal advice with relevant IPC sections. Successfully handled over 1,000 user queries, reducing consultation time by 60%.', 'Technology Used': 'Python-Flask, LangChain/LlamaIndex, vectorDB’s, LLaMA3/Mistral, ReactJs, AWS.'}, {'Name': 'ATS-Friendly Resume Analyzer', 'Description': 'Developed an ATS-Friendly Resume Analyzer that ensures is the applicant’s resume is good to go or not. Designed and implemented a robust system that evaluates resume compatibility with ATS standards and provides instant, personalized feedback. Enabled applicants to enhance their resumes by optimizing keywords, formatting, and layout for better chances of approval.', 'Technology Used': 'Flask, MongoDB,React, Python, Coherence API, ML model.'}, {'Name': 'Online learning platform', 'Description': 'Developed a comprehensive MERN stack project for managing online courses. Created a course listing page and a detailed course content page with enrollment functionality. Developed API with CRUD operations for managing courses, including fetching all courses and enrolling in a course. Integrated backend endpoints with the frontend for seamless data flow and user interaction. Utilized MongoDB, Express.js, React, and Node.js to ensure efficient and scalable application performance.', 'Technology Used': 'MERN stack (MongoDB, Express.js, React, Node.js)'}]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Shilpi_resume.pdf</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>213.81</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>675fbbdc04bf25d2fbb2b757</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>['Data Structures &amp; Algorithms', 'Object Oriented Programming', 'Database Management System']</t>
         </is>
       </c>
     </row>
